--- a/biology/Zoologie/Hyalellidae/Hyalellidae.xlsx
+++ b/biology/Zoologie/Hyalellidae/Hyalellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hyalellidés (ou Dogielinotidés) constituent une famille de crustacés amphipodes.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le corps est latéralement comprimé. Les yeux sont bien développés ou absents, si présents alors arrondis ou ovoïdes[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps est latéralement comprimé. Les yeux sont bien développés ou absents, si présents alors arrondis ou ovoïdes. 
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (13 avril 2016)[2] (sur la base de Lowry et al. 2013[1]) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (13 avril 2016) (sur la base de Lowry et al. 2013) :
 genre Hyalella S. I. Smith, 1874
 sous-genre Hyalella (Austrohyalella) Bousfield, 1996
 sous-genre Hyalella (Hyalella) S.I. Smith, 1874
 sous-genre Hyalella (Mesohyalella) Bousfield, 1996
-Selon ITIS      (13 avril 2016)[3] :
+Selon ITIS      (13 avril 2016) :
 genre Allorchestes Dana, 1849
 genre Hyalella S. I. Smith, 1874
 genre Parhyalella Kunkel, 1910
